--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="516">
   <si>
     <t>Property</t>
   </si>
@@ -593,7 +593,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-Core仕様】　completed or stopped に限定される。</t>
+【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -605,7 +605,7 @@
     <t>患者への投与状況</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1492,6 +1492,137 @@
   </si>
   <si>
     <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1843,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1876,7 +2007,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -9205,17 +9336,15 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>225</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9264,7 +9393,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>460</v>
+        <v>227</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9276,19 +9405,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>465</v>
+        <v>228</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9296,11 +9425,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9319,16 +9448,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>231</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>159</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9366,19 +9495,19 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>467</v>
+        <v>233</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9390,21 +9519,823 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="L68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>77</v>
       </c>
     </row>
